--- a/V2 changes.xlsx
+++ b/V2 changes.xlsx
@@ -8,20 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Add new user</t>
   </si>
   <si>
-    <t>Show all users</t>
-  </si>
-  <si>
     <t>Driver spelling : Dvr</t>
   </si>
   <si>
@@ -74,12 +72,39 @@
   </si>
   <si>
     <t>Initial mileage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending only push required from faysal else completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show all users dashboard count is hardcoded should be directly from database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach company directly while adding vehs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Remarks during meeting</t>
+  </si>
+  <si>
+    <t>backup option auto generate check.</t>
+  </si>
+  <si>
+    <t>During adding the vehicle last quarterly and yearly dates must be added so next date can be calculated based on that</t>
+  </si>
+  <si>
+    <t>if maint processed using mileage update date based on current date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +141,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,12 +171,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,6 +195,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -458,148 +506,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>